--- a/experimental-setup/12.03 strains-for-growth-curves.xlsx
+++ b/experimental-setup/12.03 strains-for-growth-curves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12AE663-F39D-4304-B31E-8935DE656510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBEC8E-099B-4F58-A019-71CF5F3387DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/experimental-setup/12.03 strains-for-growth-curves.xlsx
+++ b/experimental-setup/12.03 strains-for-growth-curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBEC8E-099B-4F58-A019-71CF5F3387DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B5B77-00C9-4FD6-9289-D3A97FB70109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/experimental-setup/12.03 strains-for-growth-curves.xlsx
+++ b/experimental-setup/12.03 strains-for-growth-curves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B5B77-00C9-4FD6-9289-D3A97FB70109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD1CC4-5DC4-479F-853B-2DA264E52174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>Host</t>
   </si>
@@ -72,9 +72,6 @@
     <t>pUCP.eGFP</t>
   </si>
   <si>
-    <t>513/527</t>
-  </si>
-  <si>
     <t>PAO1-H103</t>
   </si>
   <si>
@@ -111,24 +108,9 @@
     <t>FP650 is a 'far-red' fp (https://pmc.ncbi.nlm.nih.gov/articles/PMC5735104/)</t>
   </si>
   <si>
-    <t>580/610</t>
-  </si>
-  <si>
     <t>No lesb58-specific (or PA14-specific) paper, so will use excite/emission from PAO1 (https://pmc.ncbi.nlm.nih.gov/articles/PMC7406228/)</t>
   </si>
   <si>
-    <t>Have to use PAO1 again (https://onlinelibrary.wiley.com/doi/10.1111/j.1365-2958.2006.05218.x). Looks like excitation is ~513, at least by the filters that they were using - https://www.chroma.com/products/sets/49003-et-eyfp</t>
-  </si>
-  <si>
-    <t>480/511</t>
-  </si>
-  <si>
-    <t>Also PAO1 (https://journals.asm.org/doi/10.1128/aem.63.11.4543-4551.1997)</t>
-  </si>
-  <si>
-    <t>I couldn't find any papers that used unenhanced GFP. I guess that this one is either valine-substituted, or actually eGFP. This should be a good guess but I will also try 490/510 (https://academic.oup.com/femsec/article/22/1/17/606397)</t>
-  </si>
-  <si>
     <t>pUCP.rpoZ-Pro.GFP-1</t>
   </si>
   <si>
@@ -145,6 +127,21 @@
   </si>
   <si>
     <t>pUCP.lacZ-P.YFP</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>470/515</t>
+  </si>
+  <si>
+    <t>500/543</t>
+  </si>
+  <si>
+    <t>David's (Fineran group) protocol</t>
+  </si>
+  <si>
+    <t>Clariostar default</t>
   </si>
 </sst>
 </file>
@@ -525,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -573,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -593,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -610,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -630,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -647,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -664,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -681,10 +678,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -701,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -718,10 +715,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -738,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -746,16 +743,16 @@
         <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -763,16 +760,16 @@
         <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -780,19 +777,16 @@
         <v>366</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -800,16 +794,16 @@
         <v>367</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -817,16 +811,16 @@
         <v>369</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -834,16 +828,16 @@
         <v>370</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -851,16 +845,16 @@
         <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -868,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -883,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -892,22 +886,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="6"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -916,16 +910,16 @@
         <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -933,16 +927,16 @@
         <v>309</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -950,16 +944,16 @@
         <v>311</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -967,16 +961,16 @@
         <v>312</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -984,16 +978,16 @@
         <v>313</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1001,16 +995,16 @@
         <v>320</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1018,16 +1012,16 @@
         <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1035,16 +1029,16 @@
         <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1052,16 +1046,16 @@
         <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/experimental-setup/12.03 strains-for-growth-curves.xlsx
+++ b/experimental-setup/12.03 strains-for-growth-curves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD1CC4-5DC4-479F-853B-2DA264E52174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC3E79-4E25-40F6-947F-A9C6A53034BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/experimental-setup/12.03 strains-for-growth-curves.xlsx
+++ b/experimental-setup/12.03 strains-for-growth-curves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC3E79-4E25-40F6-947F-A9C6A53034BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61980740-1610-4DB1-B6A4-78E96CC97771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
   <si>
     <t>Host</t>
   </si>
@@ -142,6 +142,36 @@
   </si>
   <si>
     <t>Clariostar default</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>~ x5</t>
+  </si>
+  <si>
+    <t>~ x3.5</t>
+  </si>
+  <si>
+    <t>Comparative strength (16h)</t>
+  </si>
+  <si>
+    <t>~ x4</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>~ x1.5</t>
+  </si>
+  <si>
+    <t>~ x2.6</t>
+  </si>
+  <si>
+    <t>~ x15</t>
+  </si>
+  <si>
+    <t>~ x3</t>
   </si>
 </sst>
 </file>
@@ -520,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,10 +563,10 @@
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="122.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -553,10 +583,13 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>75</v>
       </c>
@@ -573,10 +606,13 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>76</v>
       </c>
@@ -592,8 +628,11 @@
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>63</v>
       </c>
@@ -609,11 +648,11 @@
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>64</v>
       </c>
@@ -630,7 +669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>131</v>
       </c>
@@ -647,7 +686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>132</v>
       </c>
@@ -664,7 +703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>442</v>
       </c>
@@ -681,10 +720,13 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>443</v>
       </c>
@@ -700,8 +742,11 @@
       <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>445</v>
       </c>
@@ -718,10 +763,13 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>446</v>
       </c>
@@ -737,8 +785,11 @@
       <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>317</v>
       </c>
@@ -754,8 +805,11 @@
       <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>318</v>
       </c>
@@ -771,8 +825,11 @@
       <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>366</v>
       </c>
@@ -788,8 +845,11 @@
       <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>367</v>
       </c>
@@ -805,8 +865,11 @@
       <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>369</v>
       </c>
@@ -822,8 +885,11 @@
       <c r="E18" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>370</v>
       </c>
@@ -839,8 +905,11 @@
       <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>160</v>
       </c>
@@ -857,7 +926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -869,7 +938,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>4</v>
       </c>
@@ -881,7 +950,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>6</v>
       </c>
@@ -893,7 +962,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -905,7 +974,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>308</v>
       </c>
@@ -921,8 +990,11 @@
       <c r="E29" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>309</v>
       </c>
@@ -938,8 +1010,11 @@
       <c r="E30" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>311</v>
       </c>
@@ -955,8 +1030,11 @@
       <c r="E31" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>312</v>
       </c>
@@ -972,8 +1050,11 @@
       <c r="E32" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>313</v>
       </c>
@@ -989,8 +1070,11 @@
       <c r="E33" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>320</v>
       </c>
@@ -1006,8 +1090,11 @@
       <c r="E35" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>321</v>
       </c>
@@ -1023,8 +1110,11 @@
       <c r="E36" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>323</v>
       </c>
@@ -1040,8 +1130,11 @@
       <c r="E37" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>324</v>
       </c>
@@ -1056,6 +1149,9 @@
       </c>
       <c r="E38" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/experimental-setup/12.03 strains-for-growth-curves.xlsx
+++ b/experimental-setup/12.03 strains-for-growth-curves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61980740-1610-4DB1-B6A4-78E96CC97771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178BEDFA-C390-4420-BD5B-A231A123CD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Box 1, 1</t>
   </si>
   <si>
-    <t>592/650</t>
-  </si>
-  <si>
     <t>FP650 is a 'far-red' fp (https://pmc.ncbi.nlm.nih.gov/articles/PMC5735104/)</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>~ x3</t>
+  </si>
+  <si>
+    <t>570/635</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>22</v>
@@ -603,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -626,10 +626,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -646,10 +646,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -717,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -740,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -760,13 +760,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -783,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -803,10 +803,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -823,10 +823,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -843,10 +843,10 @@
         <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -863,10 +863,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -883,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -903,10 +903,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -923,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1002,16 +1002,16 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1022,16 +1022,16 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1042,16 +1042,16 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1062,16 +1062,16 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1082,16 +1082,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1102,16 +1102,16 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1148,10 +1148,10 @@
         <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
